--- a/biology/Zoologie/Dryopsophus_dahlii/Dryopsophus_dahlii.xlsx
+++ b/biology/Zoologie/Dryopsophus_dahlii/Dryopsophus_dahlii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus dahlii est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus dahlii est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord de l'Australie[1]. Elle se rencontre dans l'extrême Est de la région du Kimberley en Australie Occidentale, dans le nord du Territoire du Nord et dans le sud-ouest de la péninsule du cap York au Queensland ce qui représente 308 300 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord de l'Australie. Elle se rencontre dans l'extrême Est de la région du Kimberley en Australie Occidentale, dans le nord du Territoire du Nord et dans le sud-ouest de la péninsule du cap York au Queensland ce qui représente 308 300 km2.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 49 à 63 mm et les femelles de 59 à 71 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 49 à 63 mm et les femelles de 59 à 71 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Knut Dahl (1871–1953)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Knut Dahl (1871–1953).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1896 "1895" : Descriptions of a new snake and a new frog from north Australia. Proceedings of the Zoological Society of London, vol. 1895, p. 867 (texte intégral).</t>
         </is>
